--- a/Political Party Switches/excel doc/party_classifications.xlsx
+++ b/Political Party Switches/excel doc/party_classifications.xlsx
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="party_classifications" sheetId="1" r:id="rId1"/>
-    <sheet name="aggregation_codes" sheetId="2" r:id="rId2"/>
+    <sheet name="Vazni Datumi i Koalicije" sheetId="3" r:id="rId2"/>
+    <sheet name="aggregation_codes" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="126">
   <si>
     <t>party_id</t>
   </si>
@@ -298,24 +299,12 @@
     <t>ingov14</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
     <t>EG</t>
   </si>
   <si>
     <t>Ethnic Group</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>ag2_name_abr</t>
   </si>
   <si>
@@ -335,13 +324,91 @@
   </si>
   <si>
     <t>nat_party</t>
+  </si>
+  <si>
+    <t>Vazni Datumi I Kontekst</t>
+  </si>
+  <si>
+    <t>Partije u Koalicijama</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Dogadjaj</t>
+  </si>
+  <si>
+    <t>Incombent Parties 2010-Elecions 2012</t>
+  </si>
+  <si>
+    <t>Incumbent Parties 2012-2014</t>
+  </si>
+  <si>
+    <t>Incumbent Parties 2014-2016</t>
+  </si>
+  <si>
+    <t>Republicki i Lokalni Izbori 2012</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>KS - SNS - SPS nacionalni nivo koalicija formirana</t>
+  </si>
+  <si>
+    <t>PUPS</t>
+  </si>
+  <si>
+    <t>formirana republicka vlada 2012</t>
+  </si>
+  <si>
+    <t>republicka koalicija odlucuje da prekomponuje lokalne samouprave</t>
+  </si>
+  <si>
+    <t>Minorities</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>Izlazak Borisa Tadica iz DS</t>
+  </si>
+  <si>
+    <t>Boris Tadic Formira NDS (danas SDS), Cepanje DS</t>
+  </si>
+  <si>
+    <t>Republicki Izbori 2014</t>
+  </si>
+  <si>
+    <t>Formirana Republicka Vlada 2014</t>
+  </si>
+  <si>
+    <t>Odluka o gasenju URS</t>
+  </si>
+  <si>
+    <t>spekulacije o vanrednim izborima</t>
+  </si>
+  <si>
+    <t>vucic najavljuje izbore na bozic</t>
+  </si>
+  <si>
+    <t>vucic odlucuje nece biti vanrednih izbora</t>
+  </si>
+  <si>
+    <t>spekulacije o vanrednim izborima u aprilu</t>
+  </si>
+  <si>
+    <t>vucic najavljuje vanredne izbore na prolece</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d&quot;/&quot;m&quot;/&quot;yy"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +542,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -658,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -773,8 +858,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -817,11 +964,29 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -859,6 +1024,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1172,7 +1338,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,16 +1387,16 @@
         <v>86</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" t="s">
         <v>99</v>
       </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
       <c r="M1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1299,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H12" si="0">VLOOKUP(G3,$A$2:$B$42,2,0)</f>
+        <f t="shared" ref="H3:H5" si="0">VLOOKUP(G3,$A$2:$B$42,2,0)</f>
         <v>1</v>
       </c>
       <c r="I3" t="s">
@@ -1477,13 +1643,13 @@
         <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K7">
         <v>-4</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1604,13 +1770,13 @@
         <v>87</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K10">
         <v>-4</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1645,13 +1811,13 @@
         <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K11">
         <v>-4</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1686,13 +1852,13 @@
         <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K12">
         <v>-4</v>
       </c>
       <c r="L12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1843,22 +2009,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16">
         <v>-3</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K16">
         <v>-4</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2009,22 +2175,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20">
         <v>-3</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K20">
         <v>-4</v>
       </c>
       <c r="L20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2175,22 +2341,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H24">
         <v>-3</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K24">
         <v>-4</v>
       </c>
       <c r="L24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2225,13 +2391,13 @@
         <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K25">
         <v>-4</v>
       </c>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2348,13 +2514,13 @@
         <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K28">
         <v>-4</v>
       </c>
       <c r="L28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2389,13 +2555,13 @@
         <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K29">
         <v>-4</v>
       </c>
       <c r="L29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2430,13 +2596,13 @@
         <v>87</v>
       </c>
       <c r="J30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K30">
         <v>-4</v>
       </c>
       <c r="L30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2471,13 +2637,13 @@
         <v>61</v>
       </c>
       <c r="J31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K31">
         <v>-4</v>
       </c>
       <c r="L31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2512,13 +2678,13 @@
         <v>63</v>
       </c>
       <c r="J32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K32">
         <v>-4</v>
       </c>
       <c r="L32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2594,13 +2760,13 @@
         <v>67</v>
       </c>
       <c r="J34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K34">
         <v>-4</v>
       </c>
       <c r="L34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2635,13 +2801,13 @@
         <v>87</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K35">
         <v>-4</v>
       </c>
       <c r="L35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2676,13 +2842,13 @@
         <v>87</v>
       </c>
       <c r="J36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K36">
         <v>-4</v>
       </c>
       <c r="L36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2717,13 +2883,13 @@
         <v>87</v>
       </c>
       <c r="J37" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K37">
         <v>-4</v>
       </c>
       <c r="L37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2758,13 +2924,13 @@
         <v>87</v>
       </c>
       <c r="J38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K38">
         <v>-4</v>
       </c>
       <c r="L38" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2840,13 +3006,13 @@
         <v>79</v>
       </c>
       <c r="J40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K40">
         <v>-4</v>
       </c>
       <c r="L40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2881,13 +3047,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K41">
         <v>-4</v>
       </c>
       <c r="L41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2913,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H42">
         <v>-2</v>
       </c>
       <c r="I42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K42">
         <v>-4</v>
       </c>
       <c r="L42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2941,10 +3107,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="4"/>
+    <col min="4" max="4" width="42.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>41035</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>41100</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>41117</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>41205</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>41669</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>41672</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>41722</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>41756</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>41792</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>42217</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>42233</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>42295</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>42726</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>42386</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2968,13 +3516,13 @@
         <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3098,13 +3646,13 @@
         <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>-4</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,13 +3763,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <v>-3</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
@@ -3531,13 +4079,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34">
         <v>-2</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Political Party Switches/excel doc/party_classifications.xlsx
+++ b/Political Party Switches/excel doc/party_classifications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13935" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13935"/>
   </bookViews>
   <sheets>
     <sheet name="party_classifications" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="159">
   <si>
     <t>party_id</t>
   </si>
@@ -293,9 +293,6 @@
     <t>in_gov11</t>
   </si>
   <si>
-    <t>ingov12</t>
-  </si>
-  <si>
     <t>ingov14</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
     <t>Minorities</t>
   </si>
   <si>
-    <t>SDP</t>
-  </si>
-  <si>
     <t>Izlazak Borisa Tadica iz DS</t>
   </si>
   <si>
@@ -399,6 +393,111 @@
   </si>
   <si>
     <t>vucic najavljuje vanredne izbore na prolece</t>
+  </si>
+  <si>
+    <t>ZzKG</t>
+  </si>
+  <si>
+    <t>Zajedno za Kragujevac</t>
+  </si>
+  <si>
+    <t>DPB</t>
+  </si>
+  <si>
+    <t>Demokratska Partija Bugara</t>
+  </si>
+  <si>
+    <t>ZzS</t>
+  </si>
+  <si>
+    <t>Zajedno za Srbiju,Dusan Petrovic</t>
+  </si>
+  <si>
+    <t>GGDM</t>
+  </si>
+  <si>
+    <t>Grupa gradjana Dragan Milic</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Vrsacka regija</t>
+  </si>
+  <si>
+    <t>GGZBZ</t>
+  </si>
+  <si>
+    <t>Grupa Gradjana "Za Bogatu Zupu"</t>
+  </si>
+  <si>
+    <t>GGPZZ</t>
+  </si>
+  <si>
+    <t>Grupa Gradjana "Pokret Za Zupu"</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Demokratska partija</t>
+  </si>
+  <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>Pokret za demokratsko delovanje</t>
+  </si>
+  <si>
+    <t>GGZV</t>
+  </si>
+  <si>
+    <t>Grupa gradjana Zoran Vorkapic</t>
+  </si>
+  <si>
+    <t>2014 National List Coalitions</t>
+  </si>
+  <si>
+    <t>2012 National List Coalitions</t>
+  </si>
+  <si>
+    <t>2016 National List Coalitions</t>
+  </si>
+  <si>
+    <t>SDPS (ljajic)</t>
+  </si>
+  <si>
+    <t>SPO (draskovic)</t>
+  </si>
+  <si>
+    <t>JS (palma)</t>
+  </si>
+  <si>
+    <t>NS (velja ilic)</t>
+  </si>
+  <si>
+    <t>NDS</t>
+  </si>
+  <si>
+    <t>ag3_name_abr</t>
+  </si>
+  <si>
+    <t>ag3_party_id</t>
+  </si>
+  <si>
+    <t>ag3_name_full</t>
+  </si>
+  <si>
+    <t>Party Unclear</t>
+  </si>
+  <si>
+    <t>Unclear</t>
+  </si>
+  <si>
+    <t>fringe13</t>
+  </si>
+  <si>
+    <t>ingov13</t>
   </si>
 </sst>
 </file>
@@ -743,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -920,6 +1019,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -966,10 +1094,8 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -985,6 +1111,12 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1335,10 +1467,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,18 +1481,20 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="49.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="5" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14" style="13" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="45.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1372,34 +1508,46 @@
         <v>89</v>
       </c>
       <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
         <v>94</v>
       </c>
-      <c r="K1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" t="s">
         <v>99</v>
       </c>
-      <c r="M1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1418,31 +1566,41 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <f>VLOOKUP(G2,$A$2:$B$42,2,0)</f>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2">
         <v>-1</v>
       </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
       <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <f>VLOOKUP(J2,$A$2:$B$42,2,0)</f>
+        <v>155</v>
+      </c>
+      <c r="K2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2">
         <v>-1</v>
       </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1459,33 +1617,43 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H5" si="0">VLOOKUP(G3,$A$2:$B$42,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K5" si="1">VLOOKUP(J3,$A$2:$B$42,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>5</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1499,36 +1667,46 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>6</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>7</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1545,33 +1723,43 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>8</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>9</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1588,33 +1776,43 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="H6">
-        <f>VLOOKUP(G6,$A$2:$B$42,2,0)</f>
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>10</v>
       </c>
-      <c r="K6">
-        <f>VLOOKUP(J6,$A$2:$B$42,2,0)</f>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>11</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1633,29 +1831,41 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>88</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-2</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7">
+        <v>-4</v>
+      </c>
+      <c r="M7" t="s">
         <v>97</v>
       </c>
-      <c r="K7">
-        <v>-4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7">
+        <v>-2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1674,31 +1884,41 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8">
+        <v>-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
         <v>14</v>
       </c>
-      <c r="H8">
-        <f>VLOOKUP(G8,$A$2:$B$42,2,0)</f>
+      <c r="L8">
         <v>6</v>
       </c>
-      <c r="I8" t="s">
+      <c r="M8" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8">
-        <f>VLOOKUP(J8,$A$2:$B$42,2,0)</f>
-        <v>6</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8">
+        <v>-3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1717,31 +1937,41 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="H9">
-        <f>VLOOKUP(G9,$A$2:$B$42,2,0)</f>
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>16</v>
       </c>
-      <c r="K9">
-        <f>VLOOKUP(J9,$A$2:$B$42,2,0)</f>
+      <c r="L9">
         <v>7</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>17</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1760,29 +1990,41 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>88</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>87</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10">
+        <v>-4</v>
+      </c>
+      <c r="M10" t="s">
         <v>97</v>
       </c>
-      <c r="K10">
-        <v>-4</v>
-      </c>
-      <c r="L10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10">
+        <v>-2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1801,29 +2043,41 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>88</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-2</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>87</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11">
+        <v>-4</v>
+      </c>
+      <c r="M11" t="s">
         <v>97</v>
       </c>
-      <c r="K11">
-        <v>-4</v>
-      </c>
-      <c r="L11" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11">
+        <v>-2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1842,29 +2096,41 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>88</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-2</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>87</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12">
+        <v>-4</v>
+      </c>
+      <c r="M12" t="s">
         <v>97</v>
       </c>
-      <c r="K12">
-        <v>-4</v>
-      </c>
-      <c r="L12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12">
+        <v>-2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1881,31 +2147,43 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
         <v>24</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>11</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>25</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>24</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>11</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>25</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1922,31 +2200,43 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>12</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>27</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>26</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>12</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>27</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1965,31 +2255,41 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>28</v>
       </c>
-      <c r="H15">
-        <f>VLOOKUP(G15,$A$2:$B$42,2,0)</f>
+      <c r="I15">
         <v>13</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>29</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>28</v>
       </c>
-      <c r="K15">
-        <f>VLOOKUP(J15,$A$2:$B$42,2,0)</f>
+      <c r="L15">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>29</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2008,29 +2308,41 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16">
+        <v>-3</v>
+      </c>
+      <c r="J16" t="s">
         <v>92</v>
       </c>
-      <c r="H16">
+      <c r="K16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16">
+        <v>-4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16">
         <v>-3</v>
       </c>
-      <c r="I16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16">
-        <v>-4</v>
-      </c>
-      <c r="L16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2044,34 +2356,46 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>32</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>15</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>33</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>32</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>15</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>33</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2090,29 +2414,41 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>34</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>16</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>35</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>34</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>16</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>35</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18">
+        <v>-4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2126,36 +2462,46 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
         <v>36</v>
       </c>
-      <c r="H19">
-        <f>VLOOKUP(G19,$A$2:$B$42,2,0)</f>
+      <c r="I19">
         <v>17</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>37</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>36</v>
       </c>
-      <c r="K19">
-        <f>VLOOKUP(J19,$A$2:$B$42,2,0)</f>
+      <c r="L19">
         <v>17</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>37</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2174,29 +2520,41 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20">
+        <v>-3</v>
+      </c>
+      <c r="J20" t="s">
         <v>92</v>
       </c>
-      <c r="H20">
+      <c r="K20" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20">
+        <v>-4</v>
+      </c>
+      <c r="M20" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20">
         <v>-3</v>
       </c>
-      <c r="I20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20">
-        <v>-4</v>
-      </c>
-      <c r="L20" t="s">
-        <v>98</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2210,34 +2568,46 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>19</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>41</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>40</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>19</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>41</v>
       </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2251,34 +2621,46 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>42</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>20</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>43</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>42</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>20</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>43</v>
       </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2297,31 +2679,41 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>44</v>
       </c>
-      <c r="H23">
-        <f>VLOOKUP(G23,$A$2:$B$42,2,0)</f>
+      <c r="I23">
         <v>21</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>45</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="K23">
-        <f>VLOOKUP(J23,$A$2:$B$42,2,0)</f>
+      <c r="L23">
         <v>21</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>45</v>
       </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2340,29 +2732,41 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24">
+        <v>-3</v>
+      </c>
+      <c r="J24" t="s">
         <v>92</v>
       </c>
-      <c r="H24">
+      <c r="K24" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24">
+        <v>-4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24">
         <v>-3</v>
       </c>
-      <c r="I24" t="s">
-        <v>93</v>
-      </c>
-      <c r="J24" t="s">
-        <v>97</v>
-      </c>
-      <c r="K24">
-        <v>-4</v>
-      </c>
-      <c r="L24" t="s">
-        <v>98</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2381,29 +2785,41 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
         <v>48</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>23</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>49</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25">
+        <v>-4</v>
+      </c>
+      <c r="M25" t="s">
         <v>97</v>
       </c>
-      <c r="K25">
+      <c r="N25" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25">
         <v>-4</v>
       </c>
-      <c r="L25" t="s">
-        <v>98</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2422,29 +2838,41 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26">
         <v>-1</v>
       </c>
-      <c r="I26" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26">
+        <v>155</v>
+      </c>
+      <c r="K26" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26">
         <v>-1</v>
       </c>
-      <c r="L26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26">
+      <c r="M26" t="s">
+        <v>155</v>
+      </c>
+      <c r="N26" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2461,31 +2889,43 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
         <v>52</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>25</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>53</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>52</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>25</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>53</v>
       </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2504,29 +2944,41 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
         <v>54</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>26</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>55</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28">
+        <v>-4</v>
+      </c>
+      <c r="M28" t="s">
         <v>97</v>
       </c>
-      <c r="K28">
+      <c r="N28" t="s">
+        <v>96</v>
+      </c>
+      <c r="O28">
         <v>-4</v>
       </c>
-      <c r="L28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2545,29 +2997,41 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
         <v>56</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>27</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>57</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29">
+        <v>-4</v>
+      </c>
+      <c r="M29" t="s">
         <v>97</v>
       </c>
-      <c r="K29">
-        <v>-4</v>
-      </c>
-      <c r="L29" t="s">
-        <v>98</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29">
+        <v>-3</v>
+      </c>
+      <c r="P29" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2586,29 +3050,41 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
         <v>88</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-2</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>87</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30">
+        <v>-4</v>
+      </c>
+      <c r="M30" t="s">
         <v>97</v>
       </c>
-      <c r="K30">
-        <v>-4</v>
-      </c>
-      <c r="L30" t="s">
-        <v>98</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>88</v>
+      </c>
+      <c r="O30">
+        <v>-2</v>
+      </c>
+      <c r="P30" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2627,29 +3103,41 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
         <v>60</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>29</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>61</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
+        <v>96</v>
+      </c>
+      <c r="L31">
+        <v>-4</v>
+      </c>
+      <c r="M31" t="s">
         <v>97</v>
       </c>
-      <c r="K31">
+      <c r="N31" t="s">
+        <v>96</v>
+      </c>
+      <c r="O31">
         <v>-4</v>
       </c>
-      <c r="L31" t="s">
-        <v>98</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2663,34 +3151,46 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
         <v>62</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>30</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>63</v>
       </c>
-      <c r="J32" t="s">
-        <v>97</v>
-      </c>
-      <c r="K32">
-        <v>-4</v>
-      </c>
-      <c r="L32" t="s">
-        <v>98</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" t="s">
+        <v>62</v>
+      </c>
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="P32" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2709,29 +3209,41 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
         <v>64</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>31</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>65</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>64</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>31</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>65</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>64</v>
+      </c>
+      <c r="O33">
+        <v>31</v>
+      </c>
+      <c r="P33" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2745,34 +3257,46 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>66</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>32</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>67</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34">
+        <v>-4</v>
+      </c>
+      <c r="M34" t="s">
         <v>97</v>
       </c>
-      <c r="K34">
-        <v>-4</v>
-      </c>
-      <c r="L34" t="s">
-        <v>98</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>91</v>
+      </c>
+      <c r="O34">
+        <v>-3</v>
+      </c>
+      <c r="P34" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2791,29 +3315,41 @@
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>88</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-2</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>87</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
+        <v>96</v>
+      </c>
+      <c r="L35">
+        <v>-4</v>
+      </c>
+      <c r="M35" t="s">
         <v>97</v>
       </c>
-      <c r="K35">
-        <v>-4</v>
-      </c>
-      <c r="L35" t="s">
-        <v>98</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>88</v>
+      </c>
+      <c r="O35">
+        <v>-2</v>
+      </c>
+      <c r="P35" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -2832,29 +3368,41 @@
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>88</v>
       </c>
-      <c r="H36">
-        <v>-1</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="I36">
+        <v>-2</v>
+      </c>
+      <c r="J36" t="s">
         <v>87</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
+        <v>96</v>
+      </c>
+      <c r="L36">
+        <v>-4</v>
+      </c>
+      <c r="M36" t="s">
         <v>97</v>
       </c>
-      <c r="K36">
-        <v>-4</v>
-      </c>
-      <c r="L36" t="s">
-        <v>98</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>88</v>
+      </c>
+      <c r="O36">
+        <v>-2</v>
+      </c>
+      <c r="P36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2873,29 +3421,41 @@
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>88</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="I37">
+        <v>-2</v>
+      </c>
+      <c r="J37" t="s">
         <v>87</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
+        <v>96</v>
+      </c>
+      <c r="L37">
+        <v>-4</v>
+      </c>
+      <c r="M37" t="s">
         <v>97</v>
       </c>
-      <c r="K37">
-        <v>-4</v>
-      </c>
-      <c r="L37" t="s">
-        <v>98</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>88</v>
+      </c>
+      <c r="O37">
+        <v>-2</v>
+      </c>
+      <c r="P37" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -2914,29 +3474,41 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>88</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="I38">
+        <v>-2</v>
+      </c>
+      <c r="J38" t="s">
         <v>87</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
+        <v>96</v>
+      </c>
+      <c r="L38">
+        <v>-4</v>
+      </c>
+      <c r="M38" t="s">
         <v>97</v>
       </c>
-      <c r="K38">
-        <v>-4</v>
-      </c>
-      <c r="L38" t="s">
-        <v>98</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O38">
+        <v>-2</v>
+      </c>
+      <c r="P38" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2950,34 +3522,46 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
         <v>76</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>37</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>77</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>76</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>37</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>77</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>76</v>
+      </c>
+      <c r="O39">
+        <v>37</v>
+      </c>
+      <c r="P39" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2996,29 +3580,41 @@
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40">
-        <v>38</v>
-      </c>
-      <c r="I40" t="s">
-        <v>79</v>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40">
+        <v>-2</v>
       </c>
       <c r="J40" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" t="s">
+        <v>96</v>
+      </c>
+      <c r="L40">
+        <v>-4</v>
+      </c>
+      <c r="M40" t="s">
         <v>97</v>
       </c>
-      <c r="K40">
-        <v>-4</v>
-      </c>
-      <c r="L40" t="s">
-        <v>98</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>88</v>
+      </c>
+      <c r="O40">
+        <v>-2</v>
+      </c>
+      <c r="P40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -3037,29 +3633,41 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41">
-        <v>39</v>
-      </c>
-      <c r="I41" t="s">
-        <v>81</v>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41">
+        <v>-2</v>
       </c>
       <c r="J41" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41" t="s">
+        <v>96</v>
+      </c>
+      <c r="L41">
+        <v>-4</v>
+      </c>
+      <c r="M41" t="s">
         <v>97</v>
       </c>
-      <c r="K41">
-        <v>-4</v>
-      </c>
-      <c r="L41" t="s">
-        <v>98</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>88</v>
+      </c>
+      <c r="O41">
+        <v>-2</v>
+      </c>
+      <c r="P41" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -3078,25 +3686,567 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42">
+        <v>-3</v>
+      </c>
+      <c r="J42" t="s">
         <v>92</v>
       </c>
-      <c r="H42">
+      <c r="K42" t="s">
+        <v>96</v>
+      </c>
+      <c r="L42">
+        <v>-4</v>
+      </c>
+      <c r="M42" t="s">
+        <v>97</v>
+      </c>
+      <c r="N42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O42">
+        <v>-3</v>
+      </c>
+      <c r="P42" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>125</v>
+      </c>
+      <c r="K43" t="s">
+        <v>96</v>
+      </c>
+      <c r="L43">
+        <v>-4</v>
+      </c>
+      <c r="M43" t="s">
+        <v>97</v>
+      </c>
+      <c r="N43" t="s">
+        <v>96</v>
+      </c>
+      <c r="O43">
+        <v>-4</v>
+      </c>
+      <c r="P43" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44">
+        <v>-3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44" t="s">
+        <v>96</v>
+      </c>
+      <c r="L44">
+        <v>-4</v>
+      </c>
+      <c r="M44" t="s">
+        <v>97</v>
+      </c>
+      <c r="N44" t="s">
+        <v>91</v>
+      </c>
+      <c r="O44">
+        <v>-3</v>
+      </c>
+      <c r="P44" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45">
+        <v>43</v>
+      </c>
+      <c r="J45" t="s">
+        <v>129</v>
+      </c>
+      <c r="K45" t="s">
+        <v>128</v>
+      </c>
+      <c r="L45">
+        <v>43</v>
+      </c>
+      <c r="M45" t="s">
+        <v>129</v>
+      </c>
+      <c r="N45" t="s">
+        <v>128</v>
+      </c>
+      <c r="O45">
+        <v>43</v>
+      </c>
+      <c r="P45" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I46">
         <v>-2</v>
       </c>
-      <c r="I42" t="s">
-        <v>93</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="J46" t="s">
+        <v>87</v>
+      </c>
+      <c r="K46" t="s">
+        <v>96</v>
+      </c>
+      <c r="L46">
+        <v>-4</v>
+      </c>
+      <c r="M46" t="s">
         <v>97</v>
       </c>
-      <c r="K42">
+      <c r="N46" t="s">
+        <v>88</v>
+      </c>
+      <c r="O46">
+        <v>-2</v>
+      </c>
+      <c r="P46" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>132</v>
+      </c>
+      <c r="I47">
+        <v>45</v>
+      </c>
+      <c r="J47" t="s">
+        <v>133</v>
+      </c>
+      <c r="K47" t="s">
+        <v>96</v>
+      </c>
+      <c r="L47">
         <v>-4</v>
       </c>
-      <c r="L42" t="s">
-        <v>98</v>
-      </c>
-      <c r="M42">
+      <c r="M47" t="s">
+        <v>97</v>
+      </c>
+      <c r="N47" t="s">
+        <v>96</v>
+      </c>
+      <c r="O47">
+        <v>-4</v>
+      </c>
+      <c r="P47" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>88</v>
+      </c>
+      <c r="I48">
+        <v>-2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" t="s">
+        <v>96</v>
+      </c>
+      <c r="L48">
+        <v>-4</v>
+      </c>
+      <c r="M48" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" t="s">
+        <v>88</v>
+      </c>
+      <c r="O48">
+        <v>-2</v>
+      </c>
+      <c r="P48" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49">
+        <v>-2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49" t="s">
+        <v>96</v>
+      </c>
+      <c r="L49">
+        <v>-4</v>
+      </c>
+      <c r="M49" t="s">
+        <v>97</v>
+      </c>
+      <c r="N49" t="s">
+        <v>88</v>
+      </c>
+      <c r="O49">
+        <v>-2</v>
+      </c>
+      <c r="P49" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50">
+        <v>48</v>
+      </c>
+      <c r="J50" t="s">
+        <v>139</v>
+      </c>
+      <c r="K50" t="s">
+        <v>96</v>
+      </c>
+      <c r="L50">
+        <v>-4</v>
+      </c>
+      <c r="M50" t="s">
+        <v>97</v>
+      </c>
+      <c r="N50" t="s">
+        <v>96</v>
+      </c>
+      <c r="O50">
+        <v>-4</v>
+      </c>
+      <c r="P50" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51">
+        <v>-3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" t="s">
+        <v>96</v>
+      </c>
+      <c r="L51">
+        <v>-4</v>
+      </c>
+      <c r="M51" t="s">
+        <v>97</v>
+      </c>
+      <c r="N51" t="s">
+        <v>91</v>
+      </c>
+      <c r="O51">
+        <v>-3</v>
+      </c>
+      <c r="P51" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>88</v>
+      </c>
+      <c r="I52">
+        <v>-2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+      <c r="K52" t="s">
+        <v>96</v>
+      </c>
+      <c r="L52">
+        <v>-4</v>
+      </c>
+      <c r="M52" t="s">
+        <v>97</v>
+      </c>
+      <c r="N52" t="s">
+        <v>88</v>
+      </c>
+      <c r="O52">
+        <v>-2</v>
+      </c>
+      <c r="P52" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q52">
         <v>0</v>
       </c>
     </row>
@@ -3107,376 +4257,453 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="4"/>
-    <col min="4" max="4" width="42.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="4"/>
+    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2"/>
+    <col min="4" max="4" width="42.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>41035</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>41100</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>41117</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>41205</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>41669</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>41672</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>41722</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>41756</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>41792</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>42217</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>42233</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>42295</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>42726</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>42386</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>41035</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>41100</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>41117</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>41205</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>41669</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>41672</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>41722</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>41756</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>41792</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>42217</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>42233</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>42295</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>42726</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>42386</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+    </row>
+    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3516,13 +4743,13 @@
         <v>86</v>
       </c>
       <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3646,13 +4873,13 @@
         <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>-4</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3763,13 +4990,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>-3</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
@@ -4079,13 +5306,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34">
         <v>-2</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Political Party Switches/excel doc/party_classifications.xlsx
+++ b/Political Party Switches/excel doc/party_classifications.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="162">
   <si>
     <t>party_id</t>
   </si>
@@ -498,6 +498,15 @@
   </si>
   <si>
     <t>ingov13</t>
+  </si>
+  <si>
+    <t>opo13</t>
+  </si>
+  <si>
+    <t>opo11</t>
+  </si>
+  <si>
+    <t>in_gov12</t>
   </si>
 </sst>
 </file>
@@ -1467,12 +1476,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,21 +1489,21 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="49.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14" style="13" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="45.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="15" customWidth="1"/>
+    <col min="4" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="14" style="13" customWidth="1"/>
+    <col min="13" max="13" width="37.7109375" style="14" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="28" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="45.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1505,49 +1514,58 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
         <v>158</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>157</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>152</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>153</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>154</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1569,14 +1587,14 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>156</v>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>155</v>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>156</v>
@@ -1596,11 +1614,20 @@
       <c r="P2" t="s">
         <v>155</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1611,10 +1638,10 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1622,14 +1649,14 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>4</v>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
@@ -1649,11 +1676,20 @@
       <c r="P3" t="s">
         <v>5</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1667,22 +1703,22 @@
         <v>1</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>-1</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
@@ -1702,11 +1738,20 @@
       <c r="P4" t="s">
         <v>7</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1723,19 +1768,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>8</v>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>8</v>
@@ -1755,11 +1800,20 @@
       <c r="P5" t="s">
         <v>9</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1779,16 +1833,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -1808,11 +1862,20 @@
       <c r="P6" t="s">
         <v>11</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1834,38 +1897,47 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>88</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>-2</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>87</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>96</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>-4</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>97</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" t="s">
         <v>88</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>-2</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7" t="s">
         <v>87</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1887,38 +1959,47 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>91</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>-3</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>92</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
         <v>14</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>6</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>15</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" t="s">
         <v>91</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>-3</v>
       </c>
-      <c r="P8" t="s">
+      <c r="S8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1929,7 +2010,7 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1940,14 +2021,14 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>16</v>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -1967,11 +2048,20 @@
       <c r="P9" t="s">
         <v>17</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1993,38 +2083,47 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>88</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>-2</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>87</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" t="s">
         <v>96</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>-4</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>97</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>88</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>-2</v>
       </c>
-      <c r="P10" t="s">
+      <c r="S10" t="s">
         <v>87</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2046,38 +2145,47 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>88</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>-2</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>87</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11" t="s">
         <v>96</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>-4</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>97</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" t="s">
         <v>88</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>-2</v>
       </c>
-      <c r="P11" t="s">
+      <c r="S11" t="s">
         <v>87</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2099,38 +2207,47 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>88</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>-2</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>87</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12" t="s">
         <v>96</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>-4</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>97</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
         <v>88</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>-2</v>
       </c>
-      <c r="P12" t="s">
+      <c r="S12" t="s">
         <v>87</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2141,7 +2258,7 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2150,16 +2267,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>24</v>
@@ -2179,11 +2296,20 @@
       <c r="P13" t="s">
         <v>25</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13">
+        <v>11</v>
+      </c>
+      <c r="S13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2194,25 +2320,25 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>12</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -2232,11 +2358,20 @@
       <c r="P14" t="s">
         <v>27</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14">
+        <v>12</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2247,7 +2382,7 @@
         <v>29</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2258,14 +2393,14 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
-        <v>28</v>
+      <c r="H15">
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>13</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
       </c>
       <c r="K15" t="s">
         <v>28</v>
@@ -2285,11 +2420,20 @@
       <c r="P15" t="s">
         <v>29</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15">
+        <v>13</v>
+      </c>
+      <c r="S15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2311,38 +2455,47 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>91</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>-3</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>92</v>
       </c>
-      <c r="K16" t="s">
+      <c r="N16" t="s">
         <v>96</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>-4</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>97</v>
       </c>
-      <c r="N16" t="s">
+      <c r="Q16" t="s">
         <v>91</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>-3</v>
       </c>
-      <c r="P16" t="s">
+      <c r="S16" t="s">
         <v>92</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2353,25 +2506,25 @@
         <v>33</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17" t="s">
         <v>32</v>
@@ -2391,11 +2544,20 @@
       <c r="P17" t="s">
         <v>33</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17">
+        <v>15</v>
+      </c>
+      <c r="S17" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2417,14 +2579,14 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>34</v>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>34</v>
@@ -2436,19 +2598,28 @@
         <v>35</v>
       </c>
       <c r="N18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" t="s">
         <v>96</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>-4</v>
       </c>
-      <c r="P18" t="s">
+      <c r="S18" t="s">
         <v>97</v>
       </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2459,25 +2630,25 @@
         <v>37</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>-1</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>17</v>
-      </c>
-      <c r="J19" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>36</v>
@@ -2497,11 +2668,20 @@
       <c r="P19" t="s">
         <v>37</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19">
+        <v>17</v>
+      </c>
+      <c r="S19" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2523,38 +2703,47 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>91</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>-3</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" t="s">
         <v>92</v>
       </c>
-      <c r="K20" t="s">
+      <c r="N20" t="s">
         <v>96</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>-4</v>
       </c>
-      <c r="M20" t="s">
+      <c r="P20" t="s">
         <v>97</v>
       </c>
-      <c r="N20" t="s">
+      <c r="Q20" t="s">
         <v>91</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>-3</v>
       </c>
-      <c r="P20" t="s">
+      <c r="S20" t="s">
         <v>92</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2568,22 +2757,22 @@
         <v>0</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>-1</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
       <c r="K21" t="s">
         <v>40</v>
@@ -2603,11 +2792,20 @@
       <c r="P21" t="s">
         <v>41</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2618,25 +2816,25 @@
         <v>43</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>-1</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>42</v>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22" t="s">
         <v>42</v>
@@ -2656,11 +2854,20 @@
       <c r="P22" t="s">
         <v>43</v>
       </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="S22" t="s">
+        <v>43</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2682,14 +2889,14 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
-        <v>44</v>
+      <c r="H23">
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -2709,11 +2916,20 @@
       <c r="P23" t="s">
         <v>45</v>
       </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23">
+        <v>21</v>
+      </c>
+      <c r="S23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2735,38 +2951,47 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
         <v>91</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>-3</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="s">
         <v>92</v>
       </c>
-      <c r="K24" t="s">
+      <c r="N24" t="s">
         <v>96</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>-4</v>
       </c>
-      <c r="M24" t="s">
+      <c r="P24" t="s">
         <v>97</v>
       </c>
-      <c r="N24" t="s">
+      <c r="Q24" t="s">
         <v>91</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>-3</v>
       </c>
-      <c r="P24" t="s">
+      <c r="S24" t="s">
         <v>92</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2788,23 +3013,23 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
         <v>48</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>23</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" t="s">
         <v>49</v>
-      </c>
-      <c r="K25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25">
-        <v>-4</v>
-      </c>
-      <c r="M25" t="s">
-        <v>97</v>
       </c>
       <c r="N25" t="s">
         <v>96</v>
@@ -2815,11 +3040,20 @@
       <c r="P25" t="s">
         <v>97</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>96</v>
+      </c>
+      <c r="R25">
+        <v>-4</v>
+      </c>
+      <c r="S25" t="s">
+        <v>97</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2841,14 +3075,14 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" t="s">
-        <v>156</v>
+      <c r="H26">
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>-1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>155</v>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
       </c>
       <c r="K26" t="s">
         <v>156</v>
@@ -2868,11 +3102,20 @@
       <c r="P26" t="s">
         <v>155</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="s">
+        <v>156</v>
+      </c>
+      <c r="R26">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>155</v>
+      </c>
+      <c r="T26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2886,22 +3129,22 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>25</v>
-      </c>
-      <c r="J27" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
       </c>
       <c r="K27" t="s">
         <v>52</v>
@@ -2921,11 +3164,20 @@
       <c r="P27" t="s">
         <v>53</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>52</v>
+      </c>
+      <c r="R27">
+        <v>25</v>
+      </c>
+      <c r="S27" t="s">
+        <v>53</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2947,23 +3199,23 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
         <v>54</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>26</v>
       </c>
-      <c r="J28" t="s">
+      <c r="M28" t="s">
         <v>55</v>
-      </c>
-      <c r="K28" t="s">
-        <v>96</v>
-      </c>
-      <c r="L28">
-        <v>-4</v>
-      </c>
-      <c r="M28" t="s">
-        <v>97</v>
       </c>
       <c r="N28" t="s">
         <v>96</v>
@@ -2974,11 +3226,20 @@
       <c r="P28" t="s">
         <v>97</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>96</v>
+      </c>
+      <c r="R28">
+        <v>-4</v>
+      </c>
+      <c r="S28" t="s">
+        <v>97</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -3000,38 +3261,47 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
         <v>56</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <v>27</v>
       </c>
-      <c r="J29" t="s">
+      <c r="M29" t="s">
         <v>57</v>
       </c>
-      <c r="K29" t="s">
+      <c r="N29" t="s">
         <v>96</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>-4</v>
       </c>
-      <c r="M29" t="s">
+      <c r="P29" t="s">
         <v>97</v>
       </c>
-      <c r="N29" t="s">
+      <c r="Q29" t="s">
         <v>91</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>-3</v>
       </c>
-      <c r="P29" t="s">
+      <c r="S29" t="s">
         <v>92</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3053,38 +3323,47 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
         <v>88</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>-2</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" t="s">
         <v>87</v>
       </c>
-      <c r="K30" t="s">
+      <c r="N30" t="s">
         <v>96</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>-4</v>
       </c>
-      <c r="M30" t="s">
+      <c r="P30" t="s">
         <v>97</v>
       </c>
-      <c r="N30" t="s">
+      <c r="Q30" t="s">
         <v>88</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <v>-2</v>
       </c>
-      <c r="P30" t="s">
+      <c r="S30" t="s">
         <v>87</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3106,23 +3385,23 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
         <v>60</v>
       </c>
-      <c r="I31">
+      <c r="L31">
         <v>29</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="s">
         <v>61</v>
-      </c>
-      <c r="K31" t="s">
-        <v>96</v>
-      </c>
-      <c r="L31">
-        <v>-4</v>
-      </c>
-      <c r="M31" t="s">
-        <v>97</v>
       </c>
       <c r="N31" t="s">
         <v>96</v>
@@ -3133,11 +3412,20 @@
       <c r="P31" t="s">
         <v>97</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>96</v>
+      </c>
+      <c r="R31">
+        <v>-4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>97</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -3151,22 +3439,22 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>30</v>
-      </c>
-      <c r="J32" t="s">
-        <v>63</v>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
       <c r="K32" t="s">
         <v>62</v>
@@ -3186,11 +3474,20 @@
       <c r="P32" t="s">
         <v>63</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>62</v>
+      </c>
+      <c r="R32">
+        <v>30</v>
+      </c>
+      <c r="S32" t="s">
+        <v>63</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -3201,7 +3498,7 @@
         <v>65</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3212,14 +3509,14 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" t="s">
-        <v>64</v>
+      <c r="H33">
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>31</v>
-      </c>
-      <c r="J33" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
       </c>
       <c r="K33" t="s">
         <v>64</v>
@@ -3239,11 +3536,20 @@
       <c r="P33" t="s">
         <v>65</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>64</v>
+      </c>
+      <c r="R33">
+        <v>31</v>
+      </c>
+      <c r="S33" t="s">
+        <v>65</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -3263,40 +3569,49 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
         <v>66</v>
       </c>
-      <c r="I34">
+      <c r="L34">
         <v>32</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="s">
         <v>67</v>
       </c>
-      <c r="K34" t="s">
+      <c r="N34" t="s">
         <v>96</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>-4</v>
       </c>
-      <c r="M34" t="s">
+      <c r="P34" t="s">
         <v>97</v>
       </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
         <v>91</v>
       </c>
-      <c r="O34">
+      <c r="R34">
         <v>-3</v>
       </c>
-      <c r="P34" t="s">
+      <c r="S34" t="s">
         <v>92</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -3318,38 +3633,47 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
         <v>88</v>
       </c>
-      <c r="I35">
+      <c r="L35">
         <v>-2</v>
       </c>
-      <c r="J35" t="s">
+      <c r="M35" t="s">
         <v>87</v>
       </c>
-      <c r="K35" t="s">
+      <c r="N35" t="s">
         <v>96</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>-4</v>
       </c>
-      <c r="M35" t="s">
+      <c r="P35" t="s">
         <v>97</v>
       </c>
-      <c r="N35" t="s">
+      <c r="Q35" t="s">
         <v>88</v>
       </c>
-      <c r="O35">
+      <c r="R35">
         <v>-2</v>
       </c>
-      <c r="P35" t="s">
+      <c r="S35" t="s">
         <v>87</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -3371,38 +3695,47 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
         <v>88</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>-2</v>
       </c>
-      <c r="J36" t="s">
+      <c r="M36" t="s">
         <v>87</v>
       </c>
-      <c r="K36" t="s">
+      <c r="N36" t="s">
         <v>96</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <v>-4</v>
       </c>
-      <c r="M36" t="s">
+      <c r="P36" t="s">
         <v>97</v>
       </c>
-      <c r="N36" t="s">
+      <c r="Q36" t="s">
         <v>88</v>
       </c>
-      <c r="O36">
+      <c r="R36">
         <v>-2</v>
       </c>
-      <c r="P36" t="s">
+      <c r="S36" t="s">
         <v>87</v>
       </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -3424,38 +3757,47 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
         <v>88</v>
       </c>
-      <c r="I37">
+      <c r="L37">
         <v>-2</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="s">
         <v>87</v>
       </c>
-      <c r="K37" t="s">
+      <c r="N37" t="s">
         <v>96</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>-4</v>
       </c>
-      <c r="M37" t="s">
+      <c r="P37" t="s">
         <v>97</v>
       </c>
-      <c r="N37" t="s">
+      <c r="Q37" t="s">
         <v>88</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <v>-2</v>
       </c>
-      <c r="P37" t="s">
+      <c r="S37" t="s">
         <v>87</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -3477,38 +3819,47 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
         <v>88</v>
       </c>
-      <c r="I38">
+      <c r="L38">
         <v>-2</v>
       </c>
-      <c r="J38" t="s">
+      <c r="M38" t="s">
         <v>87</v>
       </c>
-      <c r="K38" t="s">
+      <c r="N38" t="s">
         <v>96</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>-4</v>
       </c>
-      <c r="M38" t="s">
+      <c r="P38" t="s">
         <v>97</v>
       </c>
-      <c r="N38" t="s">
+      <c r="Q38" t="s">
         <v>88</v>
       </c>
-      <c r="O38">
+      <c r="R38">
         <v>-2</v>
       </c>
-      <c r="P38" t="s">
+      <c r="S38" t="s">
         <v>87</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -3528,16 +3879,16 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>37</v>
-      </c>
-      <c r="J39" t="s">
-        <v>77</v>
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39" t="s">
         <v>76</v>
@@ -3557,11 +3908,20 @@
       <c r="P39" t="s">
         <v>77</v>
       </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>76</v>
+      </c>
+      <c r="R39">
+        <v>37</v>
+      </c>
+      <c r="S39" t="s">
+        <v>77</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -3583,38 +3943,47 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
         <v>88</v>
       </c>
-      <c r="I40">
+      <c r="L40">
         <v>-2</v>
       </c>
-      <c r="J40" t="s">
+      <c r="M40" t="s">
         <v>87</v>
       </c>
-      <c r="K40" t="s">
+      <c r="N40" t="s">
         <v>96</v>
       </c>
-      <c r="L40">
+      <c r="O40">
         <v>-4</v>
       </c>
-      <c r="M40" t="s">
+      <c r="P40" t="s">
         <v>97</v>
       </c>
-      <c r="N40" t="s">
+      <c r="Q40" t="s">
         <v>88</v>
       </c>
-      <c r="O40">
+      <c r="R40">
         <v>-2</v>
       </c>
-      <c r="P40" t="s">
+      <c r="S40" t="s">
         <v>87</v>
       </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -3636,38 +4005,47 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
         <v>88</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <v>-2</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
         <v>87</v>
       </c>
-      <c r="K41" t="s">
+      <c r="N41" t="s">
         <v>96</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>-4</v>
       </c>
-      <c r="M41" t="s">
+      <c r="P41" t="s">
         <v>97</v>
       </c>
-      <c r="N41" t="s">
+      <c r="Q41" t="s">
         <v>88</v>
       </c>
-      <c r="O41">
+      <c r="R41">
         <v>-2</v>
       </c>
-      <c r="P41" t="s">
+      <c r="S41" t="s">
         <v>87</v>
       </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -3689,38 +4067,47 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
         <v>91</v>
       </c>
-      <c r="I42">
+      <c r="L42">
         <v>-3</v>
       </c>
-      <c r="J42" t="s">
+      <c r="M42" t="s">
         <v>92</v>
       </c>
-      <c r="K42" t="s">
+      <c r="N42" t="s">
         <v>96</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>-4</v>
       </c>
-      <c r="M42" t="s">
+      <c r="P42" t="s">
         <v>97</v>
       </c>
-      <c r="N42" t="s">
+      <c r="Q42" t="s">
         <v>91</v>
       </c>
-      <c r="O42">
+      <c r="R42">
         <v>-3</v>
       </c>
-      <c r="P42" t="s">
+      <c r="S42" t="s">
         <v>92</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -3742,23 +4129,23 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
         <v>124</v>
       </c>
-      <c r="I43">
+      <c r="L43">
         <v>41</v>
       </c>
-      <c r="J43" t="s">
+      <c r="M43" t="s">
         <v>125</v>
-      </c>
-      <c r="K43" t="s">
-        <v>96</v>
-      </c>
-      <c r="L43">
-        <v>-4</v>
-      </c>
-      <c r="M43" t="s">
-        <v>97</v>
       </c>
       <c r="N43" t="s">
         <v>96</v>
@@ -3769,11 +4156,20 @@
       <c r="P43" t="s">
         <v>97</v>
       </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>96</v>
+      </c>
+      <c r="R43">
+        <v>-4</v>
+      </c>
+      <c r="S43" t="s">
+        <v>97</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -3795,38 +4191,47 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
         <v>91</v>
       </c>
-      <c r="I44">
+      <c r="L44">
         <v>-3</v>
       </c>
-      <c r="J44" t="s">
+      <c r="M44" t="s">
         <v>92</v>
       </c>
-      <c r="K44" t="s">
+      <c r="N44" t="s">
         <v>96</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>-4</v>
       </c>
-      <c r="M44" t="s">
+      <c r="P44" t="s">
         <v>97</v>
       </c>
-      <c r="N44" t="s">
+      <c r="Q44" t="s">
         <v>91</v>
       </c>
-      <c r="O44">
+      <c r="R44">
         <v>-3</v>
       </c>
-      <c r="P44" t="s">
+      <c r="S44" t="s">
         <v>92</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -3840,22 +4245,22 @@
         <v>0</v>
       </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>-1</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>128</v>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>43</v>
-      </c>
-      <c r="J45" t="s">
-        <v>129</v>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
       </c>
       <c r="K45" t="s">
         <v>128</v>
@@ -3875,11 +4280,20 @@
       <c r="P45" t="s">
         <v>129</v>
       </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>128</v>
+      </c>
+      <c r="R45">
+        <v>43</v>
+      </c>
+      <c r="S45" t="s">
+        <v>129</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -3901,38 +4315,47 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
         <v>88</v>
       </c>
-      <c r="I46">
+      <c r="L46">
         <v>-2</v>
       </c>
-      <c r="J46" t="s">
+      <c r="M46" t="s">
         <v>87</v>
       </c>
-      <c r="K46" t="s">
+      <c r="N46" t="s">
         <v>96</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>-4</v>
       </c>
-      <c r="M46" t="s">
+      <c r="P46" t="s">
         <v>97</v>
       </c>
-      <c r="N46" t="s">
+      <c r="Q46" t="s">
         <v>88</v>
       </c>
-      <c r="O46">
+      <c r="R46">
         <v>-2</v>
       </c>
-      <c r="P46" t="s">
+      <c r="S46" t="s">
         <v>87</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -3954,23 +4377,23 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
         <v>132</v>
       </c>
-      <c r="I47">
+      <c r="L47">
         <v>45</v>
       </c>
-      <c r="J47" t="s">
+      <c r="M47" t="s">
         <v>133</v>
-      </c>
-      <c r="K47" t="s">
-        <v>96</v>
-      </c>
-      <c r="L47">
-        <v>-4</v>
-      </c>
-      <c r="M47" t="s">
-        <v>97</v>
       </c>
       <c r="N47" t="s">
         <v>96</v>
@@ -3981,11 +4404,20 @@
       <c r="P47" t="s">
         <v>97</v>
       </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q47" t="s">
+        <v>96</v>
+      </c>
+      <c r="R47">
+        <v>-4</v>
+      </c>
+      <c r="S47" t="s">
+        <v>97</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>134</v>
       </c>
@@ -4007,38 +4439,47 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
         <v>88</v>
       </c>
-      <c r="I48">
+      <c r="L48">
         <v>-2</v>
       </c>
-      <c r="J48" t="s">
+      <c r="M48" t="s">
         <v>87</v>
       </c>
-      <c r="K48" t="s">
+      <c r="N48" t="s">
         <v>96</v>
       </c>
-      <c r="L48">
+      <c r="O48">
         <v>-4</v>
       </c>
-      <c r="M48" t="s">
+      <c r="P48" t="s">
         <v>97</v>
       </c>
-      <c r="N48" t="s">
+      <c r="Q48" t="s">
         <v>88</v>
       </c>
-      <c r="O48">
+      <c r="R48">
         <v>-2</v>
       </c>
-      <c r="P48" t="s">
+      <c r="S48" t="s">
         <v>87</v>
       </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -4060,38 +4501,47 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
         <v>88</v>
       </c>
-      <c r="I49">
+      <c r="L49">
         <v>-2</v>
       </c>
-      <c r="J49" t="s">
+      <c r="M49" t="s">
         <v>87</v>
       </c>
-      <c r="K49" t="s">
+      <c r="N49" t="s">
         <v>96</v>
       </c>
-      <c r="L49">
+      <c r="O49">
         <v>-4</v>
       </c>
-      <c r="M49" t="s">
+      <c r="P49" t="s">
         <v>97</v>
       </c>
-      <c r="N49" t="s">
+      <c r="Q49" t="s">
         <v>88</v>
       </c>
-      <c r="O49">
+      <c r="R49">
         <v>-2</v>
       </c>
-      <c r="P49" t="s">
+      <c r="S49" t="s">
         <v>87</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>138</v>
       </c>
@@ -4113,23 +4563,23 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
         <v>138</v>
       </c>
-      <c r="I50">
+      <c r="L50">
         <v>48</v>
       </c>
-      <c r="J50" t="s">
+      <c r="M50" t="s">
         <v>139</v>
-      </c>
-      <c r="K50" t="s">
-        <v>96</v>
-      </c>
-      <c r="L50">
-        <v>-4</v>
-      </c>
-      <c r="M50" t="s">
-        <v>97</v>
       </c>
       <c r="N50" t="s">
         <v>96</v>
@@ -4140,11 +4590,20 @@
       <c r="P50" t="s">
         <v>97</v>
       </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>96</v>
+      </c>
+      <c r="R50">
+        <v>-4</v>
+      </c>
+      <c r="S50" t="s">
+        <v>97</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>140</v>
       </c>
@@ -4166,38 +4625,47 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
         <v>91</v>
       </c>
-      <c r="I51">
+      <c r="L51">
         <v>-3</v>
       </c>
-      <c r="J51" t="s">
+      <c r="M51" t="s">
         <v>92</v>
       </c>
-      <c r="K51" t="s">
+      <c r="N51" t="s">
         <v>96</v>
       </c>
-      <c r="L51">
+      <c r="O51">
         <v>-4</v>
       </c>
-      <c r="M51" t="s">
+      <c r="P51" t="s">
         <v>97</v>
       </c>
-      <c r="N51" t="s">
+      <c r="Q51" t="s">
         <v>91</v>
       </c>
-      <c r="O51">
+      <c r="R51">
         <v>-3</v>
       </c>
-      <c r="P51" t="s">
+      <c r="S51" t="s">
         <v>92</v>
       </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -4219,34 +4687,43 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
         <v>88</v>
       </c>
-      <c r="I52">
+      <c r="L52">
         <v>-2</v>
       </c>
-      <c r="J52" t="s">
+      <c r="M52" t="s">
         <v>87</v>
       </c>
-      <c r="K52" t="s">
+      <c r="N52" t="s">
         <v>96</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>-4</v>
       </c>
-      <c r="M52" t="s">
+      <c r="P52" t="s">
         <v>97</v>
       </c>
-      <c r="N52" t="s">
+      <c r="Q52" t="s">
         <v>88</v>
       </c>
-      <c r="O52">
+      <c r="R52">
         <v>-2</v>
       </c>
-      <c r="P52" t="s">
+      <c r="S52" t="s">
         <v>87</v>
       </c>
-      <c r="Q52">
+      <c r="T52">
         <v>0</v>
       </c>
     </row>
@@ -4260,7 +4737,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Political Party Switches/excel doc/party_classifications.xlsx
+++ b/Political Party Switches/excel doc/party_classifications.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="party_classifications" sheetId="1" r:id="rId1"/>
     <sheet name="Vazni Datumi i Koalicije" sheetId="3" r:id="rId2"/>
-    <sheet name="aggregation_codes" sheetId="2" r:id="rId3"/>
+    <sheet name="incumbent" sheetId="6" r:id="rId3"/>
+    <sheet name="coalitions" sheetId="5" r:id="rId4"/>
+    <sheet name="calendar" sheetId="4" r:id="rId5"/>
+    <sheet name="aggregation_codes" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="178">
   <si>
     <t>party_id</t>
   </si>
@@ -362,9 +365,6 @@
     <t>republicka koalicija odlucuje da prekomponuje lokalne samouprave</t>
   </si>
   <si>
-    <t>Minorities</t>
-  </si>
-  <si>
     <t>Izlazak Borisa Tadica iz DS</t>
   </si>
   <si>
@@ -455,15 +455,6 @@
     <t>Grupa gradjana Zoran Vorkapic</t>
   </si>
   <si>
-    <t>2014 National List Coalitions</t>
-  </si>
-  <si>
-    <t>2012 National List Coalitions</t>
-  </si>
-  <si>
-    <t>2016 National List Coalitions</t>
-  </si>
-  <si>
     <t>SDPS (ljajic)</t>
   </si>
   <si>
@@ -476,9 +467,6 @@
     <t>NS (velja ilic)</t>
   </si>
   <si>
-    <t>NDS</t>
-  </si>
-  <si>
     <t>ag3_name_abr</t>
   </si>
   <si>
@@ -507,6 +495,69 @@
   </si>
   <si>
     <t>in_gov12</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>National and Local Elections</t>
+  </si>
+  <si>
+    <t>SNS and SPS Agree to Match National Coalition in Municipal Assemblies</t>
+  </si>
+  <si>
+    <t>URS Kicked Out of National Ruling Coalition</t>
+  </si>
+  <si>
+    <t>National Ruling Coalition and Government Formed</t>
+  </si>
+  <si>
+    <t>Leader of URS Asked to Rejoin Government</t>
+  </si>
+  <si>
+    <t>SDS Break Away from DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Elections </t>
+  </si>
+  <si>
+    <t>URS Dissolves</t>
+  </si>
+  <si>
+    <t>2008 National Election Coalitions</t>
+  </si>
+  <si>
+    <t>2012 National Election Coalitions</t>
+  </si>
+  <si>
+    <t>2014 National Election Coalitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDPS </t>
+  </si>
+  <si>
+    <t>2008-2012</t>
+  </si>
+  <si>
+    <t>2012-2014</t>
+  </si>
+  <si>
+    <t>Incumbent</t>
+  </si>
+  <si>
+    <t>Opposition</t>
+  </si>
+  <si>
+    <t>SNS*</t>
+  </si>
+  <si>
+    <t>URS*</t>
   </si>
 </sst>
 </file>
@@ -655,6 +706,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1103,7 +1155,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
@@ -1126,6 +1178,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1478,10 +1545,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,22 +1581,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
         <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J1" t="s">
         <v>90</v>
@@ -1553,13 +1620,13 @@
         <v>98</v>
       </c>
       <c r="Q1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="R1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="S1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="T1" t="s">
         <v>99</v>
@@ -1597,31 +1664,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L2">
         <v>-1</v>
       </c>
       <c r="M2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O2">
         <v>-1</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R2">
         <v>-1</v>
       </c>
       <c r="S2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="T2">
         <v>-1</v>
@@ -3085,31 +3152,31 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L26">
         <v>-1</v>
       </c>
       <c r="M26" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O26">
         <v>-1</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R26">
         <v>-1</v>
       </c>
       <c r="S26" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="T26">
         <v>-1</v>
@@ -4109,13 +4176,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4139,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L43">
         <v>41</v>
       </c>
       <c r="M43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N43" t="s">
         <v>96</v>
@@ -4171,13 +4238,13 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4233,13 +4300,13 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4263,31 +4330,31 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L45">
         <v>43</v>
       </c>
       <c r="M45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O45">
         <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R45">
         <v>43</v>
       </c>
       <c r="S45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T45">
         <v>1</v>
@@ -4295,13 +4362,13 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4357,13 +4424,13 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4387,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L47">
         <v>45</v>
       </c>
       <c r="M47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N47" t="s">
         <v>96</v>
@@ -4419,13 +4486,13 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B48">
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4481,13 +4548,13 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49">
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4543,13 +4610,13 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50">
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -4573,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L50">
         <v>48</v>
       </c>
       <c r="M50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N50" t="s">
         <v>96</v>
@@ -4605,13 +4672,13 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51">
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4667,13 +4734,13 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -4734,28 +4801,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="69.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="2"/>
-    <col min="4" max="4" width="42.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>101</v>
@@ -4884,11 +4951,15 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="6">
+        <v>41669</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>113</v>
+      <c r="D9" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>64</v>
@@ -4900,9 +4971,9 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>41669</v>
-      </c>
-      <c r="B10" s="7" t="s">
+        <v>41672</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C10" s="1"/>
@@ -4917,7 +4988,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>41672</v>
+        <v>41722</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>115</v>
@@ -4933,8 +5004,12 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="6">
+        <v>41756</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
@@ -4942,10 +5017,10 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>41722</v>
+        <v>41792</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4954,10 +5029,10 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>41756</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>117</v>
+        <v>42217</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4965,8 +5040,12 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="6">
+        <v>42233</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -4975,10 +5054,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>41792</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>118</v>
+        <v>42295</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4987,8 +5066,12 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="6">
+        <v>42726</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4997,10 +5080,10 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>42217</v>
+        <v>42386</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5010,30 +5093,34 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>42233</v>
+        <v>42726</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="D19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>42295</v>
+        <v>42386</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
@@ -5043,41 +5130,38 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7"/>
       <c r="C21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>42726</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="C22" s="1"/>
+      <c r="D22" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>42386</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1"/>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
@@ -5087,10 +5171,10 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7"/>
       <c r="C24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>24</v>
       </c>
@@ -5100,8 +5184,8 @@
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -5111,7 +5195,7 @@
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
@@ -5122,6 +5206,9 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
         <v>110</v>
@@ -5129,6 +5216,9 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
@@ -5142,44 +5232,88 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E30" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5192,6 +5326,525 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="C15" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>41035</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>41117</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>41205</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>41485</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>41511</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>41672</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>41722</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>41756</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>41792</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>42484</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
